--- a/data_appt.xlsx
+++ b/data_appt.xlsx
@@ -473,37 +473,37 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Natasya</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Kitty</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Kucing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Vaccine</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>20/12/2022</t>
         </is>
       </c>
     </row>

--- a/data_appt.xlsx
+++ b/data_appt.xlsx
@@ -471,7 +471,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Natasya</t>
         </is>
@@ -491,10 +491,8 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="E2" t="n">
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>

--- a/data_appt.xlsx
+++ b/data_appt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Natasya</t>
+          <t>Hanif</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kitty</t>
+          <t>Zoro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -488,7 +488,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -501,9 +501,57 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/12/2022</t>
-        </is>
-      </c>
+          <t>12/12/2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Natasya</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Kitty</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Natasya</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_appt.xlsx
+++ b/data_appt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,6 +553,19 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Natasya</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
